--- a/詳細設計書.xlsx
+++ b/詳細設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/94884d7d56b8c7b8/Desktop/卒業制作/設計書/詳細設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1433" documentId="13_ncr:40009_{DEEFC818-E24E-4F20-BECF-F248DAF13C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB15484B-3FFD-4ECD-B026-224494373525}"/>
+  <xr:revisionPtr revIDLastSave="1449" documentId="13_ncr:40009_{DEEFC818-E24E-4F20-BECF-F248DAF13C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E7AFC14-40A0-41AE-A546-1DAFD9B5C95B}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="520">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -2961,10 +2961,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>一覧画面から表示。編集・削除操作あり</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>HTML可・画像任意・公開日必須</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -2974,10 +2970,6 @@
   </si>
   <si>
     <t>投稿完了メッセージ表示</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>編集・削除操作あり。検索なし</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -3237,7 +3229,56 @@
     <t>Rev 1.03</t>
   </si>
   <si>
-    <t>画面番号一覧にて削除モーダルを追加/画面レイアウトにて管理画面のボタンを変更</t>
+    <t>編集・削除操作あり。検索機能はなし。  
+削除操作は即時実行とし、確認モーダルは表示しない。  
+休業日の削除は業務への影響が小さいため、誤操作防止よりも操作効率を優先する。</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>No.107-M1</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>休業日編集モーダル</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>一覧画面から表示。編集操作可能</t>
+    <rPh sb="9" eb="11">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>一覧画面から表示。編集操作可能</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>画面番号一覧にてモーダルを追加/画面レイアウトにて管理画面のボタンを変更</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
     </rPh>
@@ -3247,19 +3288,16 @@
     <rPh sb="4" eb="6">
       <t>イチラン</t>
     </rPh>
-    <rPh sb="8" eb="10">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
+    <rPh sb="13" eb="15">
       <t>ツイカ</t>
     </rPh>
-    <rPh sb="18" eb="20">
+    <rPh sb="16" eb="18">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="27" eb="31">
+    <rPh sb="25" eb="29">
       <t>カンリガメン</t>
     </rPh>
-    <rPh sb="36" eb="38">
+    <rPh sb="34" eb="36">
       <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="7"/>
@@ -4378,7 +4416,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="447">
+  <cellXfs count="448">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -5523,6 +5561,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -10343,7 +10384,7 @@
   <dimension ref="A1:FT43"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AE22" sqref="AE22"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -11383,7 +11424,7 @@
     <row r="27" spans="1:32" ht="12.95" customHeight="1">
       <c r="A27" s="21"/>
       <c r="B27" s="29" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
@@ -11395,7 +11436,7 @@
       <c r="H27" s="250"/>
       <c r="I27" s="251"/>
       <c r="J27" s="29" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
@@ -11427,7 +11468,7 @@
     <row r="28" spans="1:32" ht="12.95" customHeight="1">
       <c r="A28" s="21"/>
       <c r="B28" s="29" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
@@ -11439,7 +11480,7 @@
       <c r="H28" s="250"/>
       <c r="I28" s="251"/>
       <c r="J28" s="29" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="K28" s="30"/>
       <c r="L28" s="30"/>
@@ -11471,7 +11512,7 @@
     <row r="29" spans="1:32" ht="12.95" customHeight="1">
       <c r="A29" s="21"/>
       <c r="B29" s="29" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
@@ -11483,7 +11524,7 @@
       <c r="H29" s="250"/>
       <c r="I29" s="251"/>
       <c r="J29" s="29" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="K29" s="30"/>
       <c r="L29" s="30"/>
@@ -32250,7 +32291,7 @@
     <row r="12" spans="1:33" ht="12.75" customHeight="1">
       <c r="A12" s="82"/>
       <c r="B12" s="83" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C12" s="83"/>
       <c r="D12" s="83"/>
@@ -32356,7 +32397,7 @@
     </row>
     <row r="15" spans="1:33" ht="12.75" customHeight="1">
       <c r="A15" s="269" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B15" s="270"/>
       <c r="C15" s="270"/>
@@ -52193,8 +52234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FC1D58-74F4-464F-9F01-6B0F671232F5}">
   <dimension ref="A1:AD33"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9:Q24"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -53121,6 +53162,9 @@
       </c>
       <c r="M23" s="95" t="s">
         <v>81</v>
+      </c>
+      <c r="N23" s="447" t="s">
+        <v>42</v>
       </c>
       <c r="O23" s="96" t="s">
         <v>80</v>
@@ -53525,7 +53569,7 @@
   <sheetData>
     <row r="1" spans="1:177" ht="12">
       <c r="A1" s="278" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B1" s="279"/>
       <c r="C1" s="279"/>
@@ -53823,7 +53867,7 @@
     </row>
     <row r="5" spans="1:177" ht="12.75" customHeight="1">
       <c r="A5" s="446" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B5" s="446"/>
       <c r="C5" s="446"/>
@@ -55139,10 +55183,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2F130A-46E9-4AFB-8EAD-02B798384988}">
-  <dimension ref="A1:AB43"/>
+  <dimension ref="A1:AB44"/>
   <sheetViews>
-    <sheetView topLeftCell="B30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9:O35"/>
+    <sheetView topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -55585,7 +55629,7 @@
         <v>437</v>
       </c>
       <c r="M13" s="113" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="N13" s="59" t="s">
         <v>457</v>
@@ -55623,7 +55667,7 @@
         <v>439</v>
       </c>
       <c r="M14" s="110" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="N14" s="59" t="s">
         <v>457</v>
@@ -55661,7 +55705,7 @@
         <v>440</v>
       </c>
       <c r="M15" s="107" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="N15" s="59" t="s">
         <v>457</v>
@@ -55699,7 +55743,7 @@
         <v>441</v>
       </c>
       <c r="M16" s="107" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="N16" s="59" t="s">
         <v>457</v>
@@ -55737,7 +55781,7 @@
         <v>442</v>
       </c>
       <c r="M17" s="107" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="N17" s="59" t="s">
         <v>457</v>
@@ -55775,7 +55819,7 @@
         <v>443</v>
       </c>
       <c r="M18" s="107" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="N18" s="59" t="s">
         <v>457</v>
@@ -55813,7 +55857,7 @@
         <v>444</v>
       </c>
       <c r="M19" s="107" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="N19" s="59" t="s">
         <v>457</v>
@@ -55851,13 +55895,13 @@
         <v>445</v>
       </c>
       <c r="M20" s="105" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="N20" s="98" t="s">
         <v>458</v>
       </c>
       <c r="O20" s="103" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="P20" s="27"/>
       <c r="Q20" s="27"/>
@@ -55889,13 +55933,13 @@
         <v>446</v>
       </c>
       <c r="M21" s="105" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="N21" s="98" t="s">
         <v>458</v>
       </c>
       <c r="O21" s="103" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="P21" s="27"/>
       <c r="Q21" s="27"/>
@@ -55924,10 +55968,10 @@
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
       <c r="L22" s="58" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="M22" s="102" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="N22" s="98" t="s">
         <v>458</v>
@@ -55965,7 +56009,7 @@
         <v>447</v>
       </c>
       <c r="M23" s="99" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="N23" s="98" t="s">
         <v>458</v>
@@ -56000,16 +56044,16 @@
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
       <c r="L24" s="58" t="s">
+        <v>507</v>
+      </c>
+      <c r="M24" s="99" t="s">
         <v>509</v>
-      </c>
-      <c r="M24" s="99" t="s">
-        <v>511</v>
       </c>
       <c r="N24" s="98" t="s">
         <v>458</v>
       </c>
       <c r="O24" s="97" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="P24" s="27"/>
       <c r="Q24" s="27"/>
@@ -56041,7 +56085,7 @@
         <v>448</v>
       </c>
       <c r="M25" s="95" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="N25" s="98" t="s">
         <v>458</v>
@@ -56076,16 +56120,16 @@
       <c r="J26" s="27"/>
       <c r="K26" s="27"/>
       <c r="L26" s="93" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="M26" s="91" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="N26" s="245" t="s">
         <v>458</v>
       </c>
       <c r="O26" s="90" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
       <c r="P26" s="27"/>
       <c r="Q26" s="27"/>
@@ -56114,16 +56158,16 @@
       <c r="J27" s="27"/>
       <c r="K27" s="27"/>
       <c r="L27" s="93" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="M27" s="95" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="N27" s="245" t="s">
         <v>458</v>
       </c>
       <c r="O27" s="94" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="P27" s="27"/>
       <c r="Q27" s="27"/>
@@ -56155,13 +56199,13 @@
         <v>449</v>
       </c>
       <c r="M28" s="95" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="N28" s="98" t="s">
         <v>458</v>
       </c>
       <c r="O28" s="94" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P28" s="27"/>
       <c r="Q28" s="27"/>
@@ -56193,13 +56237,13 @@
         <v>450</v>
       </c>
       <c r="M29" s="95" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="N29" s="98" t="s">
         <v>458</v>
       </c>
       <c r="O29" s="94" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P29" s="27"/>
       <c r="Q29" s="27"/>
@@ -56231,13 +56275,13 @@
         <v>451</v>
       </c>
       <c r="M30" s="91" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="N30" s="98" t="s">
         <v>458</v>
       </c>
       <c r="O30" s="90" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P30" s="27"/>
       <c r="Q30" s="27"/>
@@ -56269,13 +56313,13 @@
         <v>452</v>
       </c>
       <c r="M31" s="95" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="N31" s="98" t="s">
         <v>458</v>
       </c>
       <c r="O31" s="94" t="s">
-        <v>470</v>
+        <v>514</v>
       </c>
       <c r="P31" s="27"/>
       <c r="Q31" s="27"/>
@@ -56303,17 +56347,17 @@
       <c r="I32" s="27"/>
       <c r="J32" s="27"/>
       <c r="K32" s="27"/>
-      <c r="L32" s="241" t="s">
-        <v>453</v>
+      <c r="L32" s="242" t="s">
+        <v>515</v>
       </c>
       <c r="M32" s="95" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="N32" s="98" t="s">
         <v>458</v>
       </c>
       <c r="O32" s="94" t="s">
-        <v>471</v>
+        <v>518</v>
       </c>
       <c r="P32" s="27"/>
       <c r="Q32" s="27"/>
@@ -56341,17 +56385,17 @@
       <c r="I33" s="27"/>
       <c r="J33" s="27"/>
       <c r="K33" s="27"/>
-      <c r="L33" s="242" t="s">
-        <v>480</v>
-      </c>
-      <c r="M33" s="91" t="s">
-        <v>500</v>
+      <c r="L33" s="241" t="s">
+        <v>453</v>
+      </c>
+      <c r="M33" s="95" t="s">
+        <v>497</v>
       </c>
       <c r="N33" s="98" t="s">
         <v>458</v>
       </c>
-      <c r="O33" s="90" t="s">
-        <v>472</v>
+      <c r="O33" s="94" t="s">
+        <v>469</v>
       </c>
       <c r="P33" s="27"/>
       <c r="Q33" s="27"/>
@@ -56379,17 +56423,17 @@
       <c r="I34" s="27"/>
       <c r="J34" s="27"/>
       <c r="K34" s="27"/>
-      <c r="L34" s="93" t="s">
-        <v>481</v>
-      </c>
-      <c r="M34" s="246" t="s">
-        <v>501</v>
-      </c>
-      <c r="N34" s="245" t="s">
+      <c r="L34" s="242" t="s">
+        <v>478</v>
+      </c>
+      <c r="M34" s="91" t="s">
+        <v>498</v>
+      </c>
+      <c r="N34" s="98" t="s">
         <v>458</v>
       </c>
-      <c r="O34" s="247" t="s">
-        <v>473</v>
+      <c r="O34" s="90" t="s">
+        <v>470</v>
       </c>
       <c r="P34" s="27"/>
       <c r="Q34" s="27"/>
@@ -56405,7 +56449,7 @@
       <c r="AA34" s="27"/>
       <c r="AB34" s="54"/>
     </row>
-    <row r="35" spans="1:28" ht="80.25" customHeight="1" thickBot="1">
+    <row r="35" spans="1:28" ht="80.25" customHeight="1">
       <c r="A35" s="55"/>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
@@ -56417,17 +56461,17 @@
       <c r="I35" s="27"/>
       <c r="J35" s="27"/>
       <c r="K35" s="27"/>
-      <c r="L35" s="248" t="s">
-        <v>510</v>
-      </c>
-      <c r="M35" s="88" t="s">
-        <v>514</v>
-      </c>
-      <c r="N35" s="243" t="s">
+      <c r="L35" s="93" t="s">
+        <v>479</v>
+      </c>
+      <c r="M35" s="246" t="s">
+        <v>499</v>
+      </c>
+      <c r="N35" s="245" t="s">
         <v>458</v>
       </c>
-      <c r="O35" s="87" t="s">
-        <v>512</v>
+      <c r="O35" s="247" t="s">
+        <v>471</v>
       </c>
       <c r="P35" s="27"/>
       <c r="Q35" s="27"/>
@@ -56443,7 +56487,7 @@
       <c r="AA35" s="27"/>
       <c r="AB35" s="54"/>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:28" ht="80.25" customHeight="1" thickBot="1">
       <c r="A36" s="55"/>
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
@@ -56455,10 +56499,18 @@
       <c r="I36" s="27"/>
       <c r="J36" s="27"/>
       <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
+      <c r="L36" s="248" t="s">
+        <v>508</v>
+      </c>
+      <c r="M36" s="88" t="s">
+        <v>512</v>
+      </c>
+      <c r="N36" s="243" t="s">
+        <v>458</v>
+      </c>
+      <c r="O36" s="87" t="s">
+        <v>510</v>
+      </c>
       <c r="P36" s="27"/>
       <c r="Q36" s="27"/>
       <c r="R36" s="27"/>
@@ -56653,35 +56705,65 @@
       <c r="AA42" s="27"/>
       <c r="AB42" s="54"/>
     </row>
-    <row r="43" spans="1:28" ht="14.25" thickBot="1">
-      <c r="A43" s="53"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="86"/>
-      <c r="M43" s="52"/>
-      <c r="N43" s="52"/>
-      <c r="O43" s="52"/>
-      <c r="P43" s="52"/>
-      <c r="Q43" s="52"/>
-      <c r="R43" s="52"/>
-      <c r="S43" s="52"/>
-      <c r="T43" s="52"/>
-      <c r="U43" s="52"/>
-      <c r="V43" s="52"/>
-      <c r="W43" s="52"/>
-      <c r="X43" s="52"/>
-      <c r="Y43" s="52"/>
-      <c r="Z43" s="52"/>
-      <c r="AA43" s="52"/>
-      <c r="AB43" s="51"/>
+    <row r="43" spans="1:28">
+      <c r="A43" s="55"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="27"/>
+      <c r="W43" s="27"/>
+      <c r="X43" s="27"/>
+      <c r="Y43" s="27"/>
+      <c r="Z43" s="27"/>
+      <c r="AA43" s="27"/>
+      <c r="AB43" s="54"/>
+    </row>
+    <row r="44" spans="1:28" ht="14.25" thickBot="1">
+      <c r="A44" s="53"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="86"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="52"/>
+      <c r="Q44" s="52"/>
+      <c r="R44" s="52"/>
+      <c r="S44" s="52"/>
+      <c r="T44" s="52"/>
+      <c r="U44" s="52"/>
+      <c r="V44" s="52"/>
+      <c r="W44" s="52"/>
+      <c r="X44" s="52"/>
+      <c r="Y44" s="52"/>
+      <c r="Z44" s="52"/>
+      <c r="AA44" s="52"/>
+      <c r="AB44" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="7">
